--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32729-d84392-Reviews-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Near-City-Of-Hope.h15478.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,994 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r573756024-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>32729</t>
+  </si>
+  <si>
+    <t>84392</t>
+  </si>
+  <si>
+    <t>573756024</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>FANTASTIC room during construction!</t>
+  </si>
+  <si>
+    <t>What a nice hotel.  Even with the construction going on our room was super quiet and so very clean! Yes it is an older hotel, but the service and cleanliness was FANTASTIC! My daughter and I felt and were very safe.  Thank you.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r557990075-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>557990075</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Nice people</t>
+  </si>
+  <si>
+    <t>The gentleman checking us in(night), the woman behind the desk (day) were both polite and helpful.  The continental breakfast is cold cereal, toast, hard boiled eggs, yogurt.  The juice was very good, as was the coffee.  The room was very large. No carpets - vinyl flooring.  Bed was comfortable. Room had tv, microwave, mini-refrig.  We had a tub/shower. Our cousin was on first floor, had a jetted tub and a stall shower.  The sink/counter/bath door were awkward. Also there were ants, but not enough to be a problem.  Basic motel room. The a/c worked well, though noisy. Plenty of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>MANOJ P, General Manager at Quality Inn Near City of Hope, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>The gentleman checking us in(night), the woman behind the desk (day) were both polite and helpful.  The continental breakfast is cold cereal, toast, hard boiled eggs, yogurt.  The juice was very good, as was the coffee.  The room was very large. No carpets - vinyl flooring.  Bed was comfortable. Room had tv, microwave, mini-refrig.  We had a tub/shower. Our cousin was on first floor, had a jetted tub and a stall shower.  The sink/counter/bath door were awkward. Also there were ants, but not enough to be a problem.  Basic motel room. The a/c worked well, though noisy. Plenty of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r545366570-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>545366570</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Second Visit</t>
+  </si>
+  <si>
+    <t>We went back to this hotel for Thanksgiving this year, and found the rooms had been nicely updated with lots of granite.  But the best part is the staff who are all very amicable and accommodating when we needed a late checkout or were late for breakfast.  The location is great - with 3 shopping centers and numerous restaurants within a short walk.  It was very quiet, except when the maids would push their carts upstairs.  We intend to go back next year, too....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manoj P, General Manager at Quality Inn Near City of Hope, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>We went back to this hotel for Thanksgiving this year, and found the rooms had been nicely updated with lots of granite.  But the best part is the staff who are all very amicable and accommodating when we needed a late checkout or were late for breakfast.  The location is great - with 3 shopping centers and numerous restaurants within a short walk.  It was very quiet, except when the maids would push their carts upstairs.  We intend to go back next year, too....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r526161393-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>526161393</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Lack of Quality Inn</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the nice photo, this motel is seriously overpriced. The good thing: very powerful suction on the toilets and a card reading lock. Somebody had spent money on the bath tiling but none on the curtains or the shower head that emitted water out of the side of the curtain. The room had a damp feel to it. Breakfast was a token effort the proprietors hadn't even bothered to check if there was sugar for coffee, just a bowl of sweetener, the waffle mix was stale and there was the same sorry-looking fruit on display from one day to the next. Added to that there are just three tables for breakfast, one of which has two slightly-soiled armchairs as seats.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the nice photo, this motel is seriously overpriced. The good thing: very powerful suction on the toilets and a card reading lock. Somebody had spent money on the bath tiling but none on the curtains or the shower head that emitted water out of the side of the curtain. The room had a damp feel to it. Breakfast was a token effort the proprietors hadn't even bothered to check if there was sugar for coffee, just a bowl of sweetener, the waffle mix was stale and there was the same sorry-looking fruit on display from one day to the next. Added to that there are just three tables for breakfast, one of which has two slightly-soiled armchairs as seats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r509614131-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>509614131</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>OK for a nights stay</t>
+  </si>
+  <si>
+    <t>So it would appear that my wife and I have different views on this Quality Inn. She is more favorable I am a little less so, but since we were here for her appointments there is a very good chance that we will be back.
+First the inn is undergoing some renovations.  They are updating the rooms and making them more travel friendly.   The room is comfortable, but a little tight around the king bed and tv area.  The tub/shower has new tile and a tub surround.  It is a little tight for a bigger guy like me, but it still works. Both of the night stands had a lamp that came with 2 USB ports on them as well as the night stands contained outlets and USB ports.  So charge your devices should not be a problem.  The newer bed we were on was firm but comfortable.  The new bedding was nice, as was the newer headboard.   The exterior of the place looks like it could use some new paint - given that thought, it looks like they have patched up the cracks and it looks like they are getting ready to paint sometime soon.  Hopefully in future visits we will be able to see more changes.
+The breakfast was a carbohydrate delight.  Plenty of bread (white only), bagels (plain and blueberry), some Danishes (lemon, cheese and berry), muffins, cereal (Fruit Loops &amp; Corn Flakes) and make your own...So it would appear that my wife and I have different views on this Quality Inn. She is more favorable I am a little less so, but since we were here for her appointments there is a very good chance that we will be back.First the inn is undergoing some renovations.  They are updating the rooms and making them more travel friendly.   The room is comfortable, but a little tight around the king bed and tv area.  The tub/shower has new tile and a tub surround.  It is a little tight for a bigger guy like me, but it still works. Both of the night stands had a lamp that came with 2 USB ports on them as well as the night stands contained outlets and USB ports.  So charge your devices should not be a problem.  The newer bed we were on was firm but comfortable.  The new bedding was nice, as was the newer headboard.   The exterior of the place looks like it could use some new paint - given that thought, it looks like they have patched up the cracks and it looks like they are getting ready to paint sometime soon.  Hopefully in future visits we will be able to see more changes.The breakfast was a carbohydrate delight.  Plenty of bread (white only), bagels (plain and blueberry), some Danishes (lemon, cheese and berry), muffins, cereal (Fruit Loops &amp; Corn Flakes) and make your own Belgian Waffles.   They had some yogurt and eggs in the mini fridge and some apples and oranges in a bowl.  Juices consisted of Apple and Orange.  There are only 3 tables in the breakfast area, so if the hotel fills up it might be better to do a grab and go to your room to eat.  Not being a coffee drinker I cannot comment on how these were.My wife and I look forward to the upcoming changes that appear to be happening at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>So it would appear that my wife and I have different views on this Quality Inn. She is more favorable I am a little less so, but since we were here for her appointments there is a very good chance that we will be back.
+First the inn is undergoing some renovations.  They are updating the rooms and making them more travel friendly.   The room is comfortable, but a little tight around the king bed and tv area.  The tub/shower has new tile and a tub surround.  It is a little tight for a bigger guy like me, but it still works. Both of the night stands had a lamp that came with 2 USB ports on them as well as the night stands contained outlets and USB ports.  So charge your devices should not be a problem.  The newer bed we were on was firm but comfortable.  The new bedding was nice, as was the newer headboard.   The exterior of the place looks like it could use some new paint - given that thought, it looks like they have patched up the cracks and it looks like they are getting ready to paint sometime soon.  Hopefully in future visits we will be able to see more changes.
+The breakfast was a carbohydrate delight.  Plenty of bread (white only), bagels (plain and blueberry), some Danishes (lemon, cheese and berry), muffins, cereal (Fruit Loops &amp; Corn Flakes) and make your own...So it would appear that my wife and I have different views on this Quality Inn. She is more favorable I am a little less so, but since we were here for her appointments there is a very good chance that we will be back.First the inn is undergoing some renovations.  They are updating the rooms and making them more travel friendly.   The room is comfortable, but a little tight around the king bed and tv area.  The tub/shower has new tile and a tub surround.  It is a little tight for a bigger guy like me, but it still works. Both of the night stands had a lamp that came with 2 USB ports on them as well as the night stands contained outlets and USB ports.  So charge your devices should not be a problem.  The newer bed we were on was firm but comfortable.  The new bedding was nice, as was the newer headboard.   The exterior of the place looks like it could use some new paint - given that thought, it looks like they have patched up the cracks and it looks like they are getting ready to paint sometime soon.  Hopefully in future visits we will be able to see more changes.The breakfast was a carbohydrate delight.  Plenty of bread (white only), bagels (plain and blueberry), some Danishes (lemon, cheese and berry), muffins, cereal (Fruit Loops &amp; Corn Flakes) and make your own Belgian Waffles.   They had some yogurt and eggs in the mini fridge and some apples and oranges in a bowl.  Juices consisted of Apple and Orange.  There are only 3 tables in the breakfast area, so if the hotel fills up it might be better to do a grab and go to your room to eat.  Not being a coffee drinker I cannot comment on how these were.My wife and I look forward to the upcoming changes that appear to be happening at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r441825098-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>441825098</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Lots of Character</t>
+  </si>
+  <si>
+    <t>The great parts were a great location between 2 malls, parking next to the room, renovated room with lots of granite and a wonderful desk clerk by the name of Vaishali, who was both entertaining and paid attention to every problem.  The problems were a leaky faucet and a poor internet connection (she gave us a plug-in connection).  The breakfast area is very small (4 tables), but comfortable.  We rarely found anyone else there, so no problem.We enjoyed our stay and would go there again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r422814145-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>422814145</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Stayed at Quality Inn on Huntington in Monrovia.  Right near City of Hope.  They also give a discount if you are staying to go to City of Hope.  Very clean room.  The lady at the front desk was Wonderful, so kind and helpful.  Very quiet..</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r381735368-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>381735368</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Good area, decent stay, overpriced</t>
+  </si>
+  <si>
+    <t>Hotel is just north of the 210 Freeway, east of Pasadena. Nice, safe area, whatever food or shopping you want within walking distance on busy Huntington Drive. Front desk clerk cheerful, chatty, very polite on check-in. My King room was on the 2nd floor as I requested, smelled mildly of cigarette smoke but not near as bad as many other Choice properties. Room was a little worn, but generally clean. WiFi worked very well, very fast. The walls seemed very thin and I heard my neighbors on either side until late in the evening. I got a good nights' sleep in a comfortable bed. The price I paid was about 30-40% higher than it should be, in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Hotel is just north of the 210 Freeway, east of Pasadena. Nice, safe area, whatever food or shopping you want within walking distance on busy Huntington Drive. Front desk clerk cheerful, chatty, very polite on check-in. My King room was on the 2nd floor as I requested, smelled mildly of cigarette smoke but not near as bad as many other Choice properties. Room was a little worn, but generally clean. WiFi worked very well, very fast. The walls seemed very thin and I heard my neighbors on either side until late in the evening. I got a good nights' sleep in a comfortable bed. The price I paid was about 30-40% higher than it should be, in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r380090614-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>380090614</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Stuck in year 1996</t>
+  </si>
+  <si>
+    <t>I ha ace been a Diamond member for a few years, had over 100 days with choicehotels last year and I am also platinum with Hilton, because I travel for a living.
+I just needed a room for the night in this area and booked the Quality Inn on-line with the app, like I always do. The normal procedure at check-in is then to show Driver's License and credit card, initial, initial, sign, and you're on your way.
+Not so in this hotel. 
+Here the guy hands me a 4"x6" card to fill out with name, address, and sign. Just like in the old days when you checked in to a cheap motel. Or maybe cheap motels still use them? Regardless, I can't remember the last time I filled one out, it's definitely more than ten years ago. 
+So I told him I am not filling it out, because he already has all my information in his computer, so just print out a sheet like all hotels do and I'll sign it.
+He tells me every hotel has its own policy and says I have to fill out the card, then he will also print out a sheet for me to sign.
+I keep telling him I will not fill it out, so he calls his manager. 
+He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him...I ha ace been a Diamond member for a few years, had over 100 days with choicehotels last year and I am also platinum with Hilton, because I travel for a living.I just needed a room for the night in this area and booked the Quality Inn on-line with the app, like I always do. The normal procedure at check-in is then to show Driver's License and credit card, initial, initial, sign, and you're on your way.Not so in this hotel. Here the guy hands me a 4"x6" card to fill out with name, address, and sign. Just like in the old days when you checked in to a cheap motel. Or maybe cheap motels still use them? Regardless, I can't remember the last time I filled one out, it's definitely more than ten years ago. So I told him I am not filling it out, because he already has all my information in his computer, so just print out a sheet like all hotels do and I'll sign it.He tells me every hotel has its own policy and says I have to fill out the card, then he will also print out a sheet for me to sign.I keep telling him I will not fill it out, so he calls his manager. He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him again that I will not fill it out because he already has all my information etc.Now the manager (owner?) arrived. Same story again. And I suspect she is not familiar with hotel check-in procedures, because it's obvious she didn't grow up in this country.After this 10-minute ordeal I said tojust cancel my room, got a cancellation note, and checked in to the Hampton Inn a mile away instead.This Quality Inn doesn't deserve to be called a Quality Inn, nor does it deserve to be affiliated with choicehotels, at least not until they have changed both their management and procedures.MoreShow less</t>
+  </si>
+  <si>
+    <t>I ha ace been a Diamond member for a few years, had over 100 days with choicehotels last year and I am also platinum with Hilton, because I travel for a living.
+I just needed a room for the night in this area and booked the Quality Inn on-line with the app, like I always do. The normal procedure at check-in is then to show Driver's License and credit card, initial, initial, sign, and you're on your way.
+Not so in this hotel. 
+Here the guy hands me a 4"x6" card to fill out with name, address, and sign. Just like in the old days when you checked in to a cheap motel. Or maybe cheap motels still use them? Regardless, I can't remember the last time I filled one out, it's definitely more than ten years ago. 
+So I told him I am not filling it out, because he already has all my information in his computer, so just print out a sheet like all hotels do and I'll sign it.
+He tells me every hotel has its own policy and says I have to fill out the card, then he will also print out a sheet for me to sign.
+I keep telling him I will not fill it out, so he calls his manager. 
+He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him...I ha ace been a Diamond member for a few years, had over 100 days with choicehotels last year and I am also platinum with Hilton, because I travel for a living.I just needed a room for the night in this area and booked the Quality Inn on-line with the app, like I always do. The normal procedure at check-in is then to show Driver's License and credit card, initial, initial, sign, and you're on your way.Not so in this hotel. Here the guy hands me a 4"x6" card to fill out with name, address, and sign. Just like in the old days when you checked in to a cheap motel. Or maybe cheap motels still use them? Regardless, I can't remember the last time I filled one out, it's definitely more than ten years ago. So I told him I am not filling it out, because he already has all my information in his computer, so just print out a sheet like all hotels do and I'll sign it.He tells me every hotel has its own policy and says I have to fill out the card, then he will also print out a sheet for me to sign.I keep telling him I will not fill it out, so he calls his manager. He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him again that I will not fill it out because he already has all my information etc.Now the manager (owner?) arrived. Same story again. And I suspect she is not familiar with hotel check-in procedures, because it's obvious she didn't grow up in this country.After this 10-minute ordeal I said tojust cancel my room, got a cancellation note, and checked in to the Hampton Inn a mile away instead.This Quality Inn doesn't deserve to be called a Quality Inn, nor does it deserve to be affiliated with choicehotels, at least not until they have changed both their management and procedures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r367008038-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>367008038</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Room really smelled of cigarettes, furniture very run down.</t>
+  </si>
+  <si>
+    <t>We stayed here because the rate was cheap, around $100, and we got what we paid for. The room reeked of cigarettes at our 10 PM check-in even though the housekeeping staff left the window open for it to air out. This wasn't a somebody-recently-smoked in here smell, it was a somebody spent a decade smoking in here. When we leaned on the couch the covering was so threadbare our hand went through and the stuffing popped out. The room was clean, despite its age. And the free breakfast was comparable to similar hotels in this price range. The staff were friendly and there was adequate parking. The shower was also recently renovated. Still, this couldn't compensate for the general condition of the room nor the stench in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed here because the rate was cheap, around $100, and we got what we paid for. The room reeked of cigarettes at our 10 PM check-in even though the housekeeping staff left the window open for it to air out. This wasn't a somebody-recently-smoked in here smell, it was a somebody spent a decade smoking in here. When we leaned on the couch the covering was so threadbare our hand went through and the stuffing popped out. The room was clean, despite its age. And the free breakfast was comparable to similar hotels in this price range. The staff were friendly and there was adequate parking. The shower was also recently renovated. Still, this couldn't compensate for the general condition of the room nor the stench in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r361426490-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>361426490</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>overall good</t>
+  </si>
+  <si>
+    <t>Rooms were clean. only thing that was bothering me was same breakfast was served every day. there was no difference. atleast they could have given some variety.also, on last two days, i had issues related to keys. the card was not working and i had to run from room to reception.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r301175917-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>301175917</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Great service, very friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here for couple of days.. staff is young and very friendly.. rooms are clean and smell fresh.. they will help you if you have any preferences.. good breakfast.. overall a great experience.. I would definitely recommend to a friend..</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r264310073-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>264310073</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Rooster's??????</t>
+  </si>
+  <si>
+    <t>Like an earlier reviewer states this is a Motel 6 posing as a Quality inn, and that’s not a good thing. The room was adequate at best and overpriced to boot. I was the first to take a shower in the morning and there was no hot water. The water did get hot a little later for the rest of my families showers. The Breakfast area is crammed into the lobby/front desk area. Any more than 6 people in the breakfast area will make for an uncomfortable time. To top it off at sunrise a rooster began to crow and crow and crow. Apparently there is a rooster or roosters next to the hotel (See photo titled View from my room. Rooster crows at sunrise). Keep this in mind before you book.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Like an earlier reviewer states this is a Motel 6 posing as a Quality inn, and that’s not a good thing. The room was adequate at best and overpriced to boot. I was the first to take a shower in the morning and there was no hot water. The water did get hot a little later for the rest of my families showers. The Breakfast area is crammed into the lobby/front desk area. Any more than 6 people in the breakfast area will make for an uncomfortable time. To top it off at sunrise a rooster began to crow and crow and crow. Apparently there is a rooster or roosters next to the hotel (See photo titled View from my room. Rooster crows at sunrise). Keep this in mind before you book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r257453766-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>257453766</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>This is rough, even for a Quality Inn</t>
+  </si>
+  <si>
+    <t>I only needed a bed and WiFi, and got the bed.  The WiFi did not work, the TV did not work (horrible reception), they had a nice big desk, but no electrical plugs!  I had to work on top of the fridge, which I unplugged because I needed the outlet, a bit later the floor was soaked.  I could not get soaked in the shower, as there was 3 little streams of water coming out of the "adjustable" (read: not adjustable) shower head.  This place is simply awful.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r256748533-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>256748533</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Friendly Place</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at this motel.  We travel a lot and can honestly say that this is the most friendly motel.  The managers go out of their way to answer any questions or help you in any way.  During this recent visit the manager Manoj  went out of his way to help me with an internet connection.  The rooms are clean and well equipped and the motel is also undergoing some renovation.  You can not find a better place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r239749640-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>239749640</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>A Roadway Inn that calls itself a Quality Inn</t>
+  </si>
+  <si>
+    <t>First impression is that this is one of those old style roadside motels you'd find if you were making a cross country trip in the 1960's. I seriously spent a few minutes double checking, making sure I was at the right place since this looked nothing like a typical Quality Inn property.  Checking in they insisted they record my Driver's License no.  I refused since I am conscious of identity theft.  I asked them why and they said in case there is a problem with my credit card.  I reminded them that I had already fully prepaid for the room and regardless having my license number isn't going to help them resolve a problem with my credit card.  I finally relented cause it was late and I wanted to get to sleep but this is the kind of pig headed stubbornness with which this hotel operates.  The room was in sore need of an update and had the small round table and chair next to the window like you find in Motel 6's.  The rest of the room was similar to that level of quality, worn bed, old style TV etc.  The room rate while reasonable for a typical Quality Inn was way overpriced for Rodeway Inn/Motel 6 type room and that's exactly what I got here.  Would never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>First impression is that this is one of those old style roadside motels you'd find if you were making a cross country trip in the 1960's. I seriously spent a few minutes double checking, making sure I was at the right place since this looked nothing like a typical Quality Inn property.  Checking in they insisted they record my Driver's License no.  I refused since I am conscious of identity theft.  I asked them why and they said in case there is a problem with my credit card.  I reminded them that I had already fully prepaid for the room and regardless having my license number isn't going to help them resolve a problem with my credit card.  I finally relented cause it was late and I wanted to get to sleep but this is the kind of pig headed stubbornness with which this hotel operates.  The room was in sore need of an update and had the small round table and chair next to the window like you find in Motel 6's.  The rest of the room was similar to that level of quality, worn bed, old style TV etc.  The room rate while reasonable for a typical Quality Inn was way overpriced for Rodeway Inn/Motel 6 type room and that's exactly what I got here.  Would never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r230573572-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>230573572</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>very nice staff, good value, clean &amp; comfortable</t>
+  </si>
+  <si>
+    <t>Thank you for a very nice weekend getaway stay.  The room was clean and comfortable.  The staff was most helpful &amp; friendly.  The pool is small but clean and was so refreshing!  The breakfast was plentiful and saved us even more $.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r221471575-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>221471575</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>not the best in town</t>
+  </si>
+  <si>
+    <t>this was last minute everything else in the area was seriously sold out... so I found this place as they had two toms left.. they gave me the honeymoon suite... well the floor was dirty the tub was heart shaped and looked like it was from 1983 and old and gross. the couch was icky looking and the room buzzed and the fireplace looked very unsafe. at least the staff was nice and the breakfast in the lobby was decent.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r218036883-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>218036883</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Got bitten by something.</t>
+  </si>
+  <si>
+    <t>The hotel seems fairly decent upon arrival.  The check in process is quick and the person checking us in seems nice.  We stayed on one of the upper floor rooms toward the side.  Room is okay.  Nothing special but nothing to complain about either...yet.  The neighboring property was overrun buy noisy children until around 10 pm.  Maybe it's a daycare or something.  We finally went to bed when it quiet down.  When I woke up I realized I have a couple of bites on my arm.  I'm not sure what bit me but it was really itchy and red.  I assume it was bed bugs but couldn't find any.  There were no bites before I went to bed.  I gather my stuff and check out asap.  Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>The hotel seems fairly decent upon arrival.  The check in process is quick and the person checking us in seems nice.  We stayed on one of the upper floor rooms toward the side.  Room is okay.  Nothing special but nothing to complain about either...yet.  The neighboring property was overrun buy noisy children until around 10 pm.  Maybe it's a daycare or something.  We finally went to bed when it quiet down.  When I woke up I realized I have a couple of bites on my arm.  I'm not sure what bit me but it was really itchy and red.  I assume it was bed bugs but couldn't find any.  There were no bites before I went to bed.  I gather my stuff and check out asap.  Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r214100936-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>214100936</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Okay Place to stay</t>
+  </si>
+  <si>
+    <t>I wouldn't stay this was an older place to stay, but some of the things in the hotel could be upgraded. The one thing they could take care of is the odor in the bathroom. It had a mildew smell to it. I was not overwhelming, just very noticeable. Which i should have mentioned to the establishment. The breakfast area is very small, Three dining tables. I would stay at this hotel again without hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r212701865-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>212701865</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>GREAT PLACE !</t>
+  </si>
+  <si>
+    <t>Some friends and i needed a hotel for an evening to attend the Dodgers game in L.A. I wasn't expecting much but i'd have to say that the hotel was more than accommodating. Apart from a few small visual maintenance issues like loose screws and peeling wallpaper, the rooms were very clean. Staff was extremely friendly and were eager to help with any thing we needed. The breakfast was the perfect start to our long road trip back and the man working the front desk was extremely friendly and very quick to refill all of the juice carafes and supply me with anything that i needed. Not to mention that it is a great location and not a bad drive at all to the L.A area and back. Will most definitely be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Some friends and i needed a hotel for an evening to attend the Dodgers game in L.A. I wasn't expecting much but i'd have to say that the hotel was more than accommodating. Apart from a few small visual maintenance issues like loose screws and peeling wallpaper, the rooms were very clean. Staff was extremely friendly and were eager to help with any thing we needed. The breakfast was the perfect start to our long road trip back and the man working the front desk was extremely friendly and very quick to refill all of the juice carafes and supply me with anything that i needed. Not to mention that it is a great location and not a bad drive at all to the L.A area and back. Will most definitely be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r210498668-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>210498668</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Family visit/graduation</t>
+  </si>
+  <si>
+    <t>Front desk were very friendly --this is a 60's style motel with outside door entrances.  Owners need to realize this is 2014 there should be a  computer and printer available for guests to use--at the very least a wireless printer to print airline boarding passes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r210024255-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>210024255</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Relaxing stay!</t>
+  </si>
+  <si>
+    <t>This is the first time I stayed here and I really enjoyed it.  The two-level hotel was one of the smaller ones but was functional.  I like how the parking lot was surrounded by the hotel itself like in a courtyard fashion.  I felt more secure.  The hotel probably needed a new coat of paint but everything was good otherwise.  The check in process went smoothly.  The general manager, Manoj Patel, was very nice and helpful.  He was also very knowledgeable on the surrounding areas and can give you advice on where to eat and so fourth.  The room and bathroom were clean and spacious.  Everything was in working order.  The check out process also went smoothly.  Great customer service.  The breakfast was okay for a Quality Inn.  They have a waffle maker, boiled eggs, cereals and pastries.  The only issue we had was the neighboring business.  Not sure what it was but it seemed like a daycare center as we heard young children screaming in the evening, but it went quiet near bed time so it wasn't too bad.  Overall, it was a very good stay and I would stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the first time I stayed here and I really enjoyed it.  The two-level hotel was one of the smaller ones but was functional.  I like how the parking lot was surrounded by the hotel itself like in a courtyard fashion.  I felt more secure.  The hotel probably needed a new coat of paint but everything was good otherwise.  The check in process went smoothly.  The general manager, Manoj Patel, was very nice and helpful.  He was also very knowledgeable on the surrounding areas and can give you advice on where to eat and so fourth.  The room and bathroom were clean and spacious.  Everything was in working order.  The check out process also went smoothly.  Great customer service.  The breakfast was okay for a Quality Inn.  They have a waffle maker, boiled eggs, cereals and pastries.  The only issue we had was the neighboring business.  Not sure what it was but it seemed like a daycare center as we heard young children screaming in the evening, but it went quiet near bed time so it wasn't too bad.  Overall, it was a very good stay and I would stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r205276908-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>205276908</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Trustworthy and peaceful</t>
+  </si>
+  <si>
+    <t>My husband had a work near by so I drove there at late night around 1 am. An attendant Harry welcomed me and after watching me tired he even offered me a glass of water and made a nice coffee for me. And at the time of checkout he was still there in the morning as energetic as night.I tried waffle first time in my life and it was too good. The motel has very quite environment and a best place to relax after a long drive in that area. Although I found it little costly but anybody can pay extra $5 or $10 for that hospitality and quite &amp; clean environment. It is very clean motel indeed . And shopping areas are just across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>My husband had a work near by so I drove there at late night around 1 am. An attendant Harry welcomed me and after watching me tired he even offered me a glass of water and made a nice coffee for me. And at the time of checkout he was still there in the morning as energetic as night.I tried waffle first time in my life and it was too good. The motel has very quite environment and a best place to relax after a long drive in that area. Although I found it little costly but anybody can pay extra $5 or $10 for that hospitality and quite &amp; clean environment. It is very clean motel indeed . And shopping areas are just across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r203066685-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>203066685</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice enough, but not outstanding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkin and checkout were stellar with very pleasant hotel staff.  Did not partake in breakfast, so no opinion there.  Room was clean/ comfortable and grounds well maintained.  Only minus would be non-working fridge, but I bring cooler on all road-trips. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r202319055-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>202319055</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Friendly service, decent breakfast, rooms need refurbishment</t>
+  </si>
+  <si>
+    <t>The owners and employees were incredibly friendly and helpful, such as replacing the telephone in the room as it did not work. The breakfast room was small, but we always found a table and the choices were well maintained. The options were better than other Quality Inns -- yogurt, tasty juice, waffle batter brought out as necessary to keep it fresh.  The rooms were very dated, though. The broken phone and noisy A/C were not a surprised based on the first look.  Fine and tidy for a few days, though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r201252362-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>201252362</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>In need of an update</t>
+  </si>
+  <si>
+    <t>The pictures of this property seem to be *very* old. Everything is much shabbier than these pictures would indicate. We made reservations at another hotel, but upon arriving found that they didn't have any more non-smoking rooms. This left us scrambling for a place late in the evening. We took a room because we didn't want to drive far so late in the evening. The employees tried to be helpful, but we requested extra pillows and they arrived without pillow cases. The price was inexpensive and they did have an expansive breakfast: waffle machine, those chocolate covered mini donuts, some danish, yogurt, hard boiled eggs, bananas/apples, coffee and juice. There is a McDonald's across the street and a Starbucks next door. The pool is very small. Also, the TV is the worst I've seen in a hotel in years-not flat screen and the reception for most channels is terrible. I'm pretty happy we only stayed overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>The pictures of this property seem to be *very* old. Everything is much shabbier than these pictures would indicate. We made reservations at another hotel, but upon arriving found that they didn't have any more non-smoking rooms. This left us scrambling for a place late in the evening. We took a room because we didn't want to drive far so late in the evening. The employees tried to be helpful, but we requested extra pillows and they arrived without pillow cases. The price was inexpensive and they did have an expansive breakfast: waffle machine, those chocolate covered mini donuts, some danish, yogurt, hard boiled eggs, bananas/apples, coffee and juice. There is a McDonald's across the street and a Starbucks next door. The pool is very small. Also, the TV is the worst I've seen in a hotel in years-not flat screen and the reception for most channels is terrible. I'm pretty happy we only stayed overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r195829704-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>195829704</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Quality Inn Monrovia, ca.</t>
+  </si>
+  <si>
+    <t>I stayed there &amp; it was wonderful. It was very clean &amp; welcoming. The breakfast buffet is incredible for a continental breakfast. Waffles (freshly made) hot syrup, eggs, bagels &amp; cream cheese, danish, coffee, flavored creamer, juices, cereal, muffins, donuts, yogurt. The front desk staff were so pleasant I wanted to go back &amp; stay even though I didn't need to.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r193671520-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>193671520</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel I've ever stayed in!!</t>
+  </si>
+  <si>
+    <t>The staff is so friendly, kind and courteous. The rooms are clean and inviting, plenty of plugs to charge things, you get a mini-fridge, coffee maker, and even a microwave. The breakfast is top notch, great coffee, fresh pastries, bagels, and even waffles. Out of the four hotels I stayed at on my vacation, this one was hands down the best. I'd recommend it to everyone.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r185018668-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>185018668</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Excellent service; comfortable and clean rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed here a few times in the past month and our experience has been nothing but positive. The staff are friendly and attentive, and the rooms are clean and comfortable. Would recommend this to anyone looking to stay so somewhere reasonable without sacrificing quality. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r181841943-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>181841943</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Our quick trip</t>
+  </si>
+  <si>
+    <t>My husband and myself were only in Monrovia over night. We are from Las Vegas and he had a business meeting to attend. I came for the company and a short get away. We chose The Quality Inn Hotel based on the name and hoped for the best. The staff was wonderful! They were courteous, attentive and the room was very clean and neat. The bedding and the pillows were extremely comfortable and we found the continental breakfast had a nice selection of various  items from healthy to decadent. We would like to thank Quality Inn and their staff for making our one night getaway very pleasurable.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r169528856-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>169528856</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Nice clean place</t>
+  </si>
+  <si>
+    <t>Great place to stay. Close to LA without the hassles. Easy on and off the freeway. Clean rooms, clean baths, complimentary breakfast. Exceptionally friendly management and staff go to extra lengths to make sure you are comfortable. Safe location with grocery, Starbucks, restaurants within walking distance. And the price was right. very reasonable. Will certainly stay again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r168874848-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>168874848</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>The service we received was excellent!! And the hospitality was even better!! Manoj Patel (general manager) runs a very nice hotel placing the customer first. The breakfast is from 7:00 to 10:00 but  we had to leave by 6:30, and when I told them that they offered to have it all ready by 6:00am!! Now that is customer service!!!! I will defenantly be back when I am back in town!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r161213543-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>161213543</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Needs Renovation - badly</t>
+  </si>
+  <si>
+    <t>Good location and a great price for the area.But the rooms are worn out and are very badly in need of a complete renovation.The rooms feel dirty-carpet,walls,etc., they need fresh everthing.The overall property needs maintenance too-fresh paint,take care of deferred maintenance,etc.Did not want to use the pool and it appeared useable, but was "closed for renovation" ??We have family in the area but won't be staying here again until it is redone.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r160634311-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>160634311</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Hot Tub Junior Suite was SWEET!!!</t>
+  </si>
+  <si>
+    <t>Came here with my significant other for a quick weekend trip and stayed n Room #114. I booked the 2 person whirlpool tub room (not the heart shaped one shown on the website) but I apologize fellow tripadvisors, I was so excited with the room I forgot to take pictures! I am planning on a return trip there for our anniversary as everything was to my satisfaction at the hotel and will take pictures then.The same lady checked us in and checked us out and was very pleasant each time, she even offered to let me see the heart shaped jacuzzi room but we were pressed for time.Staff wasn't loud and didn't wake me in the morning and they allowed us an extended check-out.The room was a smoking room as it was unfortunately the only one available, however when I got to the room I completely forgot it was a smoking room as there was no smell whatsoever!They did have an extra $10 hold on my card but it was released and I was charged appropriately, just a heads up.The room needs more outlets in the bedroom but I guess that's not something they can just change can they?The room had a large walk in bathroom with a two person tub with adjustable jets and a separate standing shower. Overall best experience I've had at a Choice Hotel probably ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here with my significant other for a quick weekend trip and stayed n Room #114. I booked the 2 person whirlpool tub room (not the heart shaped one shown on the website) but I apologize fellow tripadvisors, I was so excited with the room I forgot to take pictures! I am planning on a return trip there for our anniversary as everything was to my satisfaction at the hotel and will take pictures then.The same lady checked us in and checked us out and was very pleasant each time, she even offered to let me see the heart shaped jacuzzi room but we were pressed for time.Staff wasn't loud and didn't wake me in the morning and they allowed us an extended check-out.The room was a smoking room as it was unfortunately the only one available, however when I got to the room I completely forgot it was a smoking room as there was no smell whatsoever!They did have an extra $10 hold on my card but it was released and I was charged appropriately, just a heads up.The room needs more outlets in the bedroom but I guess that's not something they can just change can they?The room had a large walk in bathroom with a two person tub with adjustable jets and a separate standing shower. Overall best experience I've had at a Choice Hotel probably ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r159977679-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>159977679</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Humble yet clean and convenient. Great value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here while we were visiting a relative who was getting treatment at The City of Hope. The hotel is very modest (as to be expected with a Quality Inn) but it is exceptionally clean and well kept. The managers / owners are also very personable and it's clear they truly care about their guests. They asked frequently about how our relative was doing and offered support that was genuine. This made such a difference during a difficult time. I would highly recommend this hotel. It's very close to many amenities, including a Starbucks that's right next door. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r140345355-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>140345355</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>Our family of 4 (along with many other family members) stayed here for a weekend to celebrate my great grandmothers 100th birthday. It is a motel, but nice all the same. The people at the front desk were friendly and helpful, pool was clean (although small), and the rooms were fine. It's not a 5 star hotel, but a great deal for a good nights sleep. My only complaint is that the carpets could use a cleaning. Complimentary breakfast of waffles, cereal, pastries and yogurt was fresh and substantial enough to get one through to lunch. All in all a good deal</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r137054751-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>137054751</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Standard MOTEL (NOT Inn)</t>
+  </si>
+  <si>
+    <t>First things first -- this is a MOTEL -- it is NOT and Inn nor hotel.  How on earth Choice Hotels would give it the Quality Inn label is beyond me.  I admit that I should have read these Tripadvisor ratings closer to realize that.
+As in any standard motel, there is a small, separate building where you check-in. In that small building, they do serve a few danish, etc., in the morning (with 2 small tables to sit at) but that off itself does not make it an "Inn"!  ALL rooms are outside entrances.  The exterior appears run-down.  There is a second floor (which I stayed on) but just a concrete and steel (exterior) stair to get to those rooms.  The room itself is decent as long as you go in realizing you are staying at an older motel.  On the bright side, t has been well kept and appeared clean.  As a standard motel, though, just a standard old 19 inch tube tv (no flat screens here), and of course just an area by the sink to hang a few clothes (no closet or wardrobe).  
+The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels...First things first -- this is a MOTEL -- it is NOT and Inn nor hotel.  How on earth Choice Hotels would give it the Quality Inn label is beyond me.  I admit that I should have read these Tripadvisor ratings closer to realize that.As in any standard motel, there is a small, separate building where you check-in. In that small building, they do serve a few danish, etc., in the morning (with 2 small tables to sit at) but that off itself does not make it an "Inn"!  ALL rooms are outside entrances.  The exterior appears run-down.  There is a second floor (which I stayed on) but just a concrete and steel (exterior) stair to get to those rooms.  The room itself is decent as long as you go in realizing you are staying at an older motel.  On the bright side, t has been well kept and appeared clean.  As a standard motel, though, just a standard old 19 inch tube tv (no flat screens here), and of course just an area by the sink to hang a few clothes (no closet or wardrobe).  The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels -- those with lobbys and inside room entrances.  Guess you can't trust a name anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>First things first -- this is a MOTEL -- it is NOT and Inn nor hotel.  How on earth Choice Hotels would give it the Quality Inn label is beyond me.  I admit that I should have read these Tripadvisor ratings closer to realize that.
+As in any standard motel, there is a small, separate building where you check-in. In that small building, they do serve a few danish, etc., in the morning (with 2 small tables to sit at) but that off itself does not make it an "Inn"!  ALL rooms are outside entrances.  The exterior appears run-down.  There is a second floor (which I stayed on) but just a concrete and steel (exterior) stair to get to those rooms.  The room itself is decent as long as you go in realizing you are staying at an older motel.  On the bright side, t has been well kept and appeared clean.  As a standard motel, though, just a standard old 19 inch tube tv (no flat screens here), and of course just an area by the sink to hang a few clothes (no closet or wardrobe).  
+The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels...First things first -- this is a MOTEL -- it is NOT and Inn nor hotel.  How on earth Choice Hotels would give it the Quality Inn label is beyond me.  I admit that I should have read these Tripadvisor ratings closer to realize that.As in any standard motel, there is a small, separate building where you check-in. In that small building, they do serve a few danish, etc., in the morning (with 2 small tables to sit at) but that off itself does not make it an "Inn"!  ALL rooms are outside entrances.  The exterior appears run-down.  There is a second floor (which I stayed on) but just a concrete and steel (exterior) stair to get to those rooms.  The room itself is decent as long as you go in realizing you are staying at an older motel.  On the bright side, t has been well kept and appeared clean.  As a standard motel, though, just a standard old 19 inch tube tv (no flat screens here), and of course just an area by the sink to hang a few clothes (no closet or wardrobe).  The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels -- those with lobbys and inside room entrances.  Guess you can't trust a name anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r135122380-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>135122380</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly good rooms</t>
+  </si>
+  <si>
+    <t>This is a classic two-story motel that has updated rooms. The furnishings and fixtures are pretty good with stone counters and tiles in the bath. The rooms aren't quite wide enough to fit the office desk and TV cabinet at the foot of the king bed - it's a tight squeeze with the chair in place. It's still a 2 star hotel, but is a good value for the price.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r127888471-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>127888471</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>A Nice Find!  Very Kind and Helpful Staff!</t>
+  </si>
+  <si>
+    <t>I found this this hotel randomly after pulling off I-210 tired from driving, looking for a place to stay on my way back home to the Central Coast from San Diego visiting family and friends.  I was greeted warmly and respectfully at the front desk by the manager, Mr. Patel.  He was very polite and helpful recommending local restaurants.  There are many places to eat within walking distance whether you want fast food, Chinese, sushi, and a great Mexican place (Max's) right next door with some of the best margaritas!  Room was very clean, comfortable bed and pillows, slept like a baby.  As I was loading my things to depart, I ran into Mr. Patel to return my key, and he asked how my stay was and wished me a pleasant and safe trip home.  Again I could tell he and his family take great pride in providing outstanding courteous service to their guests.  I will definitely be back next time I need a rest stop off of the 210.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I found this this hotel randomly after pulling off I-210 tired from driving, looking for a place to stay on my way back home to the Central Coast from San Diego visiting family and friends.  I was greeted warmly and respectfully at the front desk by the manager, Mr. Patel.  He was very polite and helpful recommending local restaurants.  There are many places to eat within walking distance whether you want fast food, Chinese, sushi, and a great Mexican place (Max's) right next door with some of the best margaritas!  Room was very clean, comfortable bed and pillows, slept like a baby.  As I was loading my things to depart, I ran into Mr. Patel to return my key, and he asked how my stay was and wished me a pleasant and safe trip home.  Again I could tell he and his family take great pride in providing outstanding courteous service to their guests.  I will definitely be back next time I need a rest stop off of the 210.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r126104191-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>126104191</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Would definitely go back.</t>
+  </si>
+  <si>
+    <t>Passing thru on business and selected this place based on their proximityy to the freeway and a few restaurants (see my review of the Spagetti Factory within walking distance) close by. They were easy to find and had a nice secure parking lot. The young lady working the check-in counter was very pleasant and gave me info about  4 or 5 good places to go for dinner nearby. I typically seek out brand-name hotels around the $65 to $95 range and my expectations adjust with the rate. When I entered the room I could tell within about 30 seconds that this hotel takes" care" of there rooms. On the small'ish side, but immaculate clean. None of the typical signs of "wear &amp; tare" (I'll spare you the 50 examples of what I mean). After dropping my bag on the bed and a quick visual check of the bath/shower, bed, carpet, couch, desk/workspace, lamps, tv &amp; power outlet at the desk one word came to mind; nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Passing thru on business and selected this place based on their proximityy to the freeway and a few restaurants (see my review of the Spagetti Factory within walking distance) close by. They were easy to find and had a nice secure parking lot. The young lady working the check-in counter was very pleasant and gave me info about  4 or 5 good places to go for dinner nearby. I typically seek out brand-name hotels around the $65 to $95 range and my expectations adjust with the rate. When I entered the room I could tell within about 30 seconds that this hotel takes" care" of there rooms. On the small'ish side, but immaculate clean. None of the typical signs of "wear &amp; tare" (I'll spare you the 50 examples of what I mean). After dropping my bag on the bed and a quick visual check of the bath/shower, bed, carpet, couch, desk/workspace, lamps, tv &amp; power outlet at the desk one word came to mind; nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r125055696-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>125055696</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money! It's like a Motel.</t>
+  </si>
+  <si>
+    <t>Where do I begin with this hotel?  We drive in the hotel and this place needs a major face lift.  It's truly old looking compared to the picture on the website.  So we get into our room and we noticed there's no phone.  My boyfriend says maybe they don't want to be bothered at front desk.  So I went down stairs at front desk to let them know that there was no phone in my room.  The woman looked at me like I was nuts.   The lady at the front desk did come right away and replaced it.Also the water pressure is low when taking a shower.  There is no safe in the room.  I kept taking my lap top everywhere as this place doesn't look safe.  I would have stayed at the marriott hotel but it was sold out!!  Although I have to say the room is clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Where do I begin with this hotel?  We drive in the hotel and this place needs a major face lift.  It's truly old looking compared to the picture on the website.  So we get into our room and we noticed there's no phone.  My boyfriend says maybe they don't want to be bothered at front desk.  So I went down stairs at front desk to let them know that there was no phone in my room.  The woman looked at me like I was nuts.   The lady at the front desk did come right away and replaced it.Also the water pressure is low when taking a shower.  There is no safe in the room.  I kept taking my lap top everywhere as this place doesn't look safe.  I would have stayed at the marriott hotel but it was sold out!!  Although I have to say the room is clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r120239972-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>120239972</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Very Nice Find!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 3 nights and had a great time at this hotel.  The morning started off with a great selection of breakfast options from having hot fresh waffles and hard boiled eggs. Also being offered each morning was a selection of cereals both hot and cold, fruit, juices, coffee and tea. The room was spacious and updated with very comfortable beds that included a refrigerator and a microwave.  The hotel is easy to find and in a great location that is next to several stores and food establishments that are all within walking distance. The office staff was very kind and always greeted us with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 3 nights and had a great time at this hotel.  The morning started off with a great selection of breakfast options from having hot fresh waffles and hard boiled eggs. Also being offered each morning was a selection of cereals both hot and cold, fruit, juices, coffee and tea. The room was spacious and updated with very comfortable beds that included a refrigerator and a microwave.  The hotel is easy to find and in a great location that is next to several stores and food establishments that are all within walking distance. The office staff was very kind and always greeted us with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r120140699-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>120140699</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>i have to stay here again</t>
+  </si>
+  <si>
+    <t>i love this hotel!! it has nice remodled rooms, awsome service and great breakfast! mr patel checked me in and gave me a great chinese resturaunt close by. to me this was better than any other quality inn this is THE quailty inn!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r118683168-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>118683168</t>
+  </si>
+  <si>
+    <t>09/28/2011</t>
+  </si>
+  <si>
+    <t>The Travelling Saleslady</t>
+  </si>
+  <si>
+    <t>I recently stumbled across this wonderful hotel during my recent visit to Duarte.  For the price, I found all the amenities I needed such as wifi, iron, breakfast included in my room rate.  This is a clean place located close to restaurants, grocery stores and shopping area.  I will recommend this place to any one.  The staff is very courteous and caring.  See you next time I am in the area.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r114273222-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>114273222</t>
+  </si>
+  <si>
+    <t>06/18/2011</t>
+  </si>
+  <si>
+    <t>Adequate, low priced, clean, decent.</t>
+  </si>
+  <si>
+    <t>One of the smaller properties of Choice Hotels, used to be a Comfort Inn (also of the Choice line) according to the internet print out code I used. Reception wasn't that good on the internet though as wifi was static mostly ( might be from the famous City of Hope Hospital nearby). . Rooms were adequate if somewhat smaller than larger Quality Inn's - but the price with AAA membership was good for the area, most other hotels are about $30-$50 higher per night near here. Service was adequate, friendly staff, adequate soft towels, no insect problems, The one noisy neighbor I had in my week plus stay-quieted when I turned on my tv (and could hear it probably).Air Conditioner and Heater (cool nights the period I was here) worked fine. Shower water nozzle could use replacement-the flow is limited -Desk said they all are being replaced soon. It's generally a safe walking area -  good local restaurants - Kentucky Fried Chicken &amp; McDonalds across the street- a Ralphs grocery and Starbuck's Coffee House are next door.. Small swimming pool, adequate maid service, all in all a decent place to stay in these budget conscious times. I rated it 3 Stars based on size, value, the low flow sort of  dribbly shower head, and parking lot noise.. .MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>One of the smaller properties of Choice Hotels, used to be a Comfort Inn (also of the Choice line) according to the internet print out code I used. Reception wasn't that good on the internet though as wifi was static mostly ( might be from the famous City of Hope Hospital nearby). . Rooms were adequate if somewhat smaller than larger Quality Inn's - but the price with AAA membership was good for the area, most other hotels are about $30-$50 higher per night near here. Service was adequate, friendly staff, adequate soft towels, no insect problems, The one noisy neighbor I had in my week plus stay-quieted when I turned on my tv (and could hear it probably).Air Conditioner and Heater (cool nights the period I was here) worked fine. Shower water nozzle could use replacement-the flow is limited -Desk said they all are being replaced soon. It's generally a safe walking area -  good local restaurants - Kentucky Fried Chicken &amp; McDonalds across the street- a Ralphs grocery and Starbuck's Coffee House are next door.. Small swimming pool, adequate maid service, all in all a decent place to stay in these budget conscious times. I rated it 3 Stars based on size, value, the low flow sort of  dribbly shower head, and parking lot noise.. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r100092150-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>100092150</t>
+  </si>
+  <si>
+    <t>03/13/2011</t>
+  </si>
+  <si>
+    <t>Wonderful and welcoming family run hotel</t>
+  </si>
+  <si>
+    <t>We had previously stayed at the Marriot Courtyard Hotel in Monrovia but I thought I would try the Quality Inn out. It was a very nice stay and although it did not have the polish of the Marriot, I felt extremely comfortable here. It is so centrally located that you can walk across the street to Target and there are numerous restaurants right there as well. The family who runs the hotel is obviously very interested in their customer's comfort and we certainly appreciated the personal touch. I would recommend this hotel to anyone that needs a clean comfortable room and a delicious breakfast.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r100078975-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>100078975</t>
+  </si>
+  <si>
+    <t>I MATTERED</t>
+  </si>
+  <si>
+    <t>I was on business in the Arcadia, California area for about six days.  My reservation was initially with another hotel and they screwed up on my reservation.  Upset and tired, I drove into Quality Inn.  Without any expectation, I was greeted with a smile, got the respected and felt like I was important.  I even saved money compared to the courtyard.  The breakfast is good and included, did not have to pay for the internet, and in walking proximity to restaurants, fast food and shopping centers.  I will be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r72941278-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>72941278</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>An affordable motel with a classy free breakfast, excellent friendly staff and very clean comfortable rooms.</t>
+  </si>
+  <si>
+    <t>Recently my wife and I had to take a motel locally because we experienced a "burst water heater" in our home that left us with much water damage and the need to live outside the home while the damages were mitigated.  It was a day-by-day vigil and was a very demanding and stressful time.  The Patel family who own and operate the Quality Inn lived up to the name of the motel they operate.  They were intentional and flexible in meeting our needs.  They were friendly and kind in responding to our delemna.  This establishment was a real blessing at a time of great stress.  We were able to get the needed rest to respond daily to the stress.  Thank you, Patel family.  Once again, please read our one sentence title above.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Recently my wife and I had to take a motel locally because we experienced a "burst water heater" in our home that left us with much water damage and the need to live outside the home while the damages were mitigated.  It was a day-by-day vigil and was a very demanding and stressful time.  The Patel family who own and operate the Quality Inn lived up to the name of the motel they operate.  They were intentional and flexible in meeting our needs.  They were friendly and kind in responding to our delemna.  This establishment was a real blessing at a time of great stress.  We were able to get the needed rest to respond daily to the stress.  Thank you, Patel family.  Once again, please read our one sentence title above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r6131889-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>6131889</t>
+  </si>
+  <si>
+    <t>11/13/2006</t>
+  </si>
+  <si>
+    <t>Comfort Not</t>
+  </si>
+  <si>
+    <t>Cost is no bargain. Loathsome motel. This is a Comfort Inn imposter. We have stayed in Comfort Inns all over the country. This is absolutely the worst one yet. Too Small of a room for a king size bed. Walls deteriorating, pillows two inches thick and then only two of them,  Refrigerator not plugged in when we got into the room and wouldn't cool down while we were there. All maintenece done by the managers which didn't know how to prep for paint or anything else.  Outside paint looks like a mess.Concrete work that appeared to be done on a  slim budget by ametuers. The room had a four inch step up to get out of the room that my wife tripped on and came close to falling on her face. I have never seen  anything like this in a room before.  I think that the room used to be a storeroom. When checking in to the motel the smell of curry in the office was overwhelming.  The TV  got few of the normal channels much less HBO. The towels and washcloths were so thin even the cochroaches were complaining. The toilet paper was even too narrow for the toilet paper holder. It appeared that every effort that could be taken to cheapen the upkeep costs were taken. In my opinion this is a loathsome motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>Cost is no bargain. Loathsome motel. This is a Comfort Inn imposter. We have stayed in Comfort Inns all over the country. This is absolutely the worst one yet. Too Small of a room for a king size bed. Walls deteriorating, pillows two inches thick and then only two of them,  Refrigerator not plugged in when we got into the room and wouldn't cool down while we were there. All maintenece done by the managers which didn't know how to prep for paint or anything else.  Outside paint looks like a mess.Concrete work that appeared to be done on a  slim budget by ametuers. The room had a four inch step up to get out of the room that my wife tripped on and came close to falling on her face. I have never seen  anything like this in a room before.  I think that the room used to be a storeroom. When checking in to the motel the smell of curry in the office was overwhelming.  The TV  got few of the normal channels much less HBO. The towels and washcloths were so thin even the cochroaches were complaining. The toilet paper was even too narrow for the toilet paper holder. It appeared that every effort that could be taken to cheapen the upkeep costs were taken. In my opinion this is a loathsome motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r5598014-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>5598014</t>
+  </si>
+  <si>
+    <t>08/09/2006</t>
+  </si>
+  <si>
+    <t>Nice staff, good location, but stay elsewhere</t>
+  </si>
+  <si>
+    <t>The staff was accommodating when we asked to check in early (1pm).  Very helpful at all times. Manager fixed the cable TV though it wasn't the best picture it was passable. Plenty of places to eat McDs, Pollo Loco, KFC, Denny's and Ralph's grocery store next door, as well as a Starbucks. Our room smelled of cigarette smoke and the room was on the noisy street. The airconditioning worked, but it was on full blast while we were there and kept the room just bearable. I honestly didn't want to touch anything. We'll try the Oak Tree Inn next time.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1636,3263 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
+        <v>316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>329</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K50" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28860</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_599.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>averyfamily3</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>RioVistaMomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r557990075-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The gentleman checking us in(night), the woman behind the desk (day) were both polite and helpful.  The continental breakfast is cold cereal, toast, hard boiled eggs, yogurt.  The juice was very good, as was the coffee.  The room was very large. No carpets - vinyl flooring.  Bed was comfortable. Room had tv, microwave, mini-refrig.  We had a tub/shower. Our cousin was on first floor, had a jetted tub and a stall shower.  The sink/counter/bath door were awkward. Also there were ants, but not enough to be a problem.  Basic motel room. The a/c worked well, though noisy. Plenty of parking.More</t>
   </si>
   <si>
+    <t>SezLuckyGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r545366570-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>We went back to this hotel for Thanksgiving this year, and found the rooms had been nicely updated with lots of granite.  But the best part is the staff who are all very amicable and accommodating when we needed a late checkout or were late for breakfast.  The location is great - with 3 shopping centers and numerous restaurants within a short walk.  It was very quiet, except when the maids would push their carts upstairs.  We intend to go back next year, too....More</t>
   </si>
   <si>
+    <t>FGoesToHinchleyWood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r526161393-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -259,6 +271,9 @@
   </si>
   <si>
     <t>Don't be fooled by the nice photo, this motel is seriously overpriced. The good thing: very powerful suction on the toilets and a card reading lock. Somebody had spent money on the bath tiling but none on the curtains or the shower head that emitted water out of the side of the curtain. The room had a damp feel to it. Breakfast was a token effort the proprietors hadn't even bothered to check if there was sugar for coffee, just a bowl of sweetener, the waffle mix was stale and there was the same sorry-looking fruit on display from one day to the next. Added to that there are just three tables for breakfast, one of which has two slightly-soiled armchairs as seats.More</t>
+  </si>
+  <si>
+    <t>wayneusd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r509614131-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
@@ -304,6 +319,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Susan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r422814145-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -322,6 +340,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r381735368-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -341,6 +362,9 @@
   </si>
   <si>
     <t>Hotel is just north of the 210 Freeway, east of Pasadena. Nice, safe area, whatever food or shopping you want within walking distance on busy Huntington Drive. Front desk clerk cheerful, chatty, very polite on check-in. My King room was on the 2nd floor as I requested, smelled mildly of cigarette smoke but not near as bad as many other Choice properties. Room was a little worn, but generally clean. WiFi worked very well, very fast. The walls seemed very thin and I heard my neighbors on either side until late in the evening. I got a good nights' sleep in a comfortable bed. The price I paid was about 30-40% higher than it should be, in my opinion.More</t>
+  </si>
+  <si>
+    <t>raggarbil</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r380090614-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
@@ -375,6 +399,9 @@
 He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him...I ha ace been a Diamond member for a few years, had over 100 days with choicehotels last year and I am also platinum with Hilton, because I travel for a living.I just needed a room for the night in this area and booked the Quality Inn on-line with the app, like I always do. The normal procedure at check-in is then to show Driver's License and credit card, initial, initial, sign, and you're on your way.Not so in this hotel. Here the guy hands me a 4"x6" card to fill out with name, address, and sign. Just like in the old days when you checked in to a cheap motel. Or maybe cheap motels still use them? Regardless, I can't remember the last time I filled one out, it's definitely more than ten years ago. So I told him I am not filling it out, because he already has all my information in his computer, so just print out a sheet like all hotels do and I'll sign it.He tells me every hotel has its own policy and says I have to fill out the card, then he will also print out a sheet for me to sign.I keep telling him I will not fill it out, so he calls his manager. He then again tells me I have to fill it out, so I now suspect he doesn't understand English, but I tell him again that I will not fill it out because he already has all my information etc.Now the manager (owner?) arrived. Same story again. And I suspect she is not familiar with hotel check-in procedures, because it's obvious she didn't grow up in this country.After this 10-minute ordeal I said tojust cancel my room, got a cancellation note, and checked in to the Hampton Inn a mile away instead.This Quality Inn doesn't deserve to be called a Quality Inn, nor does it deserve to be affiliated with choicehotels, at least not until they have changed both their management and procedures.More</t>
   </si>
   <si>
+    <t>Christopher L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r367008038-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>We stayed here because the rate was cheap, around $100, and we got what we paid for. The room reeked of cigarettes at our 10 PM check-in even though the housekeeping staff left the window open for it to air out. This wasn't a somebody-recently-smoked in here smell, it was a somebody spent a decade smoking in here. When we leaned on the couch the covering was so threadbare our hand went through and the stuffing popped out. The room was clean, despite its age. And the free breakfast was comparable to similar hotels in this price range. The staff were friendly and there was adequate parking. The shower was also recently renovated. Still, this couldn't compensate for the general condition of the room nor the stench in the room.More</t>
   </si>
   <si>
+    <t>Paurush B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r361426490-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>KR28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r301175917-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Al R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r264310073-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>Like an earlier reviewer states this is a Motel 6 posing as a Quality inn, and that’s not a good thing. The room was adequate at best and overpriced to boot. I was the first to take a shower in the morning and there was no hot water. The water did get hot a little later for the rest of my families showers. The Breakfast area is crammed into the lobby/front desk area. Any more than 6 people in the breakfast area will make for an uncomfortable time. To top it off at sunrise a rooster began to crow and crow and crow. Apparently there is a rooster or roosters next to the hotel (See photo titled View from my room. Rooster crows at sunrise). Keep this in mind before you book.More</t>
   </si>
   <si>
+    <t>RLeave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r257453766-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Joe S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r256748533-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>This is the second time we have stayed at this motel.  We travel a lot and can honestly say that this is the most friendly motel.  The managers go out of their way to answer any questions or help you in any way.  During this recent visit the manager Manoj  went out of his way to help me with an internet connection.  The rooms are clean and well equipped and the motel is also undergoing some renovation.  You can not find a better place to stay.</t>
   </si>
   <si>
+    <t>Jakerson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r239749640-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>First impression is that this is one of those old style roadside motels you'd find if you were making a cross country trip in the 1960's. I seriously spent a few minutes double checking, making sure I was at the right place since this looked nothing like a typical Quality Inn property.  Checking in they insisted they record my Driver's License no.  I refused since I am conscious of identity theft.  I asked them why and they said in case there is a problem with my credit card.  I reminded them that I had already fully prepaid for the room and regardless having my license number isn't going to help them resolve a problem with my credit card.  I finally relented cause it was late and I wanted to get to sleep but this is the kind of pig headed stubbornness with which this hotel operates.  The room was in sore need of an update and had the small round table and chair next to the window like you find in Motel 6's.  The rest of the room was similar to that level of quality, worn bed, old style TV etc.  The room rate while reasonable for a typical Quality Inn was way overpriced for Rodeway Inn/Motel 6 type room and that's exactly what I got here.  Would never stay here again.More</t>
   </si>
   <si>
+    <t>36theresal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r230573572-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>316gimmickst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r221471575-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>RHgrounded</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r218036883-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>The hotel seems fairly decent upon arrival.  The check in process is quick and the person checking us in seems nice.  We stayed on one of the upper floor rooms toward the side.  Room is okay.  Nothing special but nothing to complain about either...yet.  The neighboring property was overrun buy noisy children until around 10 pm.  Maybe it's a daycare or something.  We finally went to bed when it quiet down.  When I woke up I realized I have a couple of bites on my arm.  I'm not sure what bit me but it was really itchy and red.  I assume it was bed bugs but couldn't find any.  There were no bites before I went to bed.  I gather my stuff and check out asap.  Never again!More</t>
   </si>
   <si>
+    <t>Richard R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r214100936-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>I wouldn't stay this was an older place to stay, but some of the things in the hotel could be upgraded. The one thing they could take care of is the odor in the bathroom. It had a mildew smell to it. I was not overwhelming, just very noticeable. Which i should have mentioned to the establishment. The breakfast area is very small, Three dining tables. I would stay at this hotel again without hesitation.</t>
   </si>
   <si>
+    <t>Max R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r212701865-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -603,6 +663,9 @@
     <t>Some friends and i needed a hotel for an evening to attend the Dodgers game in L.A. I wasn't expecting much but i'd have to say that the hotel was more than accommodating. Apart from a few small visual maintenance issues like loose screws and peeling wallpaper, the rooms were very clean. Staff was extremely friendly and were eager to help with any thing we needed. The breakfast was the perfect start to our long road trip back and the man working the front desk was extremely friendly and very quick to refill all of the juice carafes and supply me with anything that i needed. Not to mention that it is a great location and not a bad drive at all to the L.A area and back. Will most definitely be staying here again!More</t>
   </si>
   <si>
+    <t>cadmanrich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r210498668-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>Front desk were very friendly --this is a 60's style motel with outside door entrances.  Owners need to realize this is 2014 there should be a  computer and printer available for guests to use--at the very least a wireless printer to print airline boarding passes.</t>
   </si>
   <si>
+    <t>RainbowCowboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r210024255-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>This is the first time I stayed here and I really enjoyed it.  The two-level hotel was one of the smaller ones but was functional.  I like how the parking lot was surrounded by the hotel itself like in a courtyard fashion.  I felt more secure.  The hotel probably needed a new coat of paint but everything was good otherwise.  The check in process went smoothly.  The general manager, Manoj Patel, was very nice and helpful.  He was also very knowledgeable on the surrounding areas and can give you advice on where to eat and so fourth.  The room and bathroom were clean and spacious.  Everything was in working order.  The check out process also went smoothly.  Great customer service.  The breakfast was okay for a Quality Inn.  They have a waffle maker, boiled eggs, cereals and pastries.  The only issue we had was the neighboring business.  Not sure what it was but it seemed like a daycare center as we heard young children screaming in the evening, but it went quiet near bed time so it wasn't too bad.  Overall, it was a very good stay and I would stay here again if I was in the area.More</t>
   </si>
   <si>
+    <t>Siaz S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r205276908-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -657,6 +726,9 @@
     <t>My husband had a work near by so I drove there at late night around 1 am. An attendant Harry welcomed me and after watching me tired he even offered me a glass of water and made a nice coffee for me. And at the time of checkout he was still there in the morning as energetic as night.I tried waffle first time in my life and it was too good. The motel has very quite environment and a best place to relax after a long drive in that area. Although I found it little costly but anybody can pay extra $5 or $10 for that hospitality and quite &amp; clean environment. It is very clean motel indeed . And shopping areas are just across the street.More</t>
   </si>
   <si>
+    <t>BrianMillerSantee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r203066685-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -672,6 +744,9 @@
     <t xml:space="preserve">Checkin and checkout were stellar with very pleasant hotel staff.  Did not partake in breakfast, so no opinion there.  Room was clean/ comfortable and grounds well maintained.  Only minus would be non-working fridge, but I bring cooler on all road-trips. </t>
   </si>
   <si>
+    <t>DC2florida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r202319055-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -687,6 +762,9 @@
     <t>The owners and employees were incredibly friendly and helpful, such as replacing the telephone in the room as it did not work. The breakfast room was small, but we always found a table and the choices were well maintained. The options were better than other Quality Inns -- yogurt, tasty juice, waffle batter brought out as necessary to keep it fresh.  The rooms were very dated, though. The broken phone and noisy A/C were not a surprised based on the first look.  Fine and tidy for a few days, though.</t>
   </si>
   <si>
+    <t>kimmer1966</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r201252362-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -705,6 +783,9 @@
     <t>The pictures of this property seem to be *very* old. Everything is much shabbier than these pictures would indicate. We made reservations at another hotel, but upon arriving found that they didn't have any more non-smoking rooms. This left us scrambling for a place late in the evening. We took a room because we didn't want to drive far so late in the evening. The employees tried to be helpful, but we requested extra pillows and they arrived without pillow cases. The price was inexpensive and they did have an expansive breakfast: waffle machine, those chocolate covered mini donuts, some danish, yogurt, hard boiled eggs, bananas/apples, coffee and juice. There is a McDonald's across the street and a Starbucks next door. The pool is very small. Also, the TV is the worst I've seen in a hotel in years-not flat screen and the reception for most channels is terrible. I'm pretty happy we only stayed overnight.More</t>
   </si>
   <si>
+    <t>linda s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r195829704-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -723,6 +804,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Mark O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r193671520-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>NDominguez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r185018668-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -756,6 +843,9 @@
     <t xml:space="preserve">We have stayed here a few times in the past month and our experience has been nothing but positive. The staff are friendly and attentive, and the rooms are clean and comfortable. Would recommend this to anyone looking to stay so somewhere reasonable without sacrificing quality. </t>
   </si>
   <si>
+    <t>VickiAnn2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r181841943-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -774,6 +864,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Doris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r169528856-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -792,6 +885,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Caviking72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r168874848-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -807,6 +903,9 @@
     <t>The service we received was excellent!! And the hospitality was even better!! Manoj Patel (general manager) runs a very nice hotel placing the customer first. The breakfast is from 7:00 to 10:00 but  we had to leave by 6:30, and when I told them that they offered to have it all ready by 6:00am!! Now that is customer service!!!! I will defenantly be back when I am back in town!!</t>
   </si>
   <si>
+    <t>Sabrejet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r161213543-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -825,6 +924,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>KMDoll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r160634311-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -843,6 +945,9 @@
     <t>Came here with my significant other for a quick weekend trip and stayed n Room #114. I booked the 2 person whirlpool tub room (not the heart shaped one shown on the website) but I apologize fellow tripadvisors, I was so excited with the room I forgot to take pictures! I am planning on a return trip there for our anniversary as everything was to my satisfaction at the hotel and will take pictures then.The same lady checked us in and checked us out and was very pleasant each time, she even offered to let me see the heart shaped jacuzzi room but we were pressed for time.Staff wasn't loud and didn't wake me in the morning and they allowed us an extended check-out.The room was a smoking room as it was unfortunately the only one available, however when I got to the room I completely forgot it was a smoking room as there was no smell whatsoever!They did have an extra $10 hold on my card but it was released and I was charged appropriately, just a heads up.The room needs more outlets in the bedroom but I guess that's not something they can just change can they?The room had a large walk in bathroom with a two person tub with adjustable jets and a separate standing shower. Overall best experience I've had at a Choice Hotel probably ever!More</t>
   </si>
   <si>
+    <t>CostaRicaMaryland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r159977679-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -858,6 +963,9 @@
     <t xml:space="preserve">We stayed here while we were visiting a relative who was getting treatment at The City of Hope. The hotel is very modest (as to be expected with a Quality Inn) but it is exceptionally clean and well kept. The managers / owners are also very personable and it's clear they truly care about their guests. They asked frequently about how our relative was doing and offered support that was genuine. This made such a difference during a difficult time. I would highly recommend this hotel. It's very close to many amenities, including a Starbucks that's right next door. </t>
   </si>
   <si>
+    <t>Haskinsfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r140345355-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -871,6 +979,9 @@
   </si>
   <si>
     <t>Our family of 4 (along with many other family members) stayed here for a weekend to celebrate my great grandmothers 100th birthday. It is a motel, but nice all the same. The people at the front desk were friendly and helpful, pool was clean (although small), and the rooms were fine. It's not a 5 star hotel, but a great deal for a good nights sleep. My only complaint is that the carpets could use a cleaning. Complimentary breakfast of waffles, cereal, pastries and yogurt was fresh and substantial enough to get one through to lunch. All in all a good deal</t>
+  </si>
+  <si>
+    <t>Jon&amp;Kathy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r137054751-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
@@ -898,6 +1009,9 @@
 The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels...First things first -- this is a MOTEL -- it is NOT and Inn nor hotel.  How on earth Choice Hotels would give it the Quality Inn label is beyond me.  I admit that I should have read these Tripadvisor ratings closer to realize that.As in any standard motel, there is a small, separate building where you check-in. In that small building, they do serve a few danish, etc., in the morning (with 2 small tables to sit at) but that off itself does not make it an "Inn"!  ALL rooms are outside entrances.  The exterior appears run-down.  There is a second floor (which I stayed on) but just a concrete and steel (exterior) stair to get to those rooms.  The room itself is decent as long as you go in realizing you are staying at an older motel.  On the bright side, t has been well kept and appeared clean.  As a standard motel, though, just a standard old 19 inch tube tv (no flat screens here), and of course just an area by the sink to hang a few clothes (no closet or wardrobe).  The person at checkin and checkout was very nice.  All in all, I would have rated this higher if it was designated as a MOTEL so I could rate it as such.  But, I am rating this as a "Quality Inn", which it definitely is not.  I usually look for Inns or hotels -- those with lobbys and inside room entrances.  Guess you can't trust a name anymore.More</t>
   </si>
   <si>
+    <t>MaCroPlanet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r135122380-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -916,6 +1030,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Hallz999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r127888471-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -937,6 +1054,9 @@
     <t>I found this this hotel randomly after pulling off I-210 tired from driving, looking for a place to stay on my way back home to the Central Coast from San Diego visiting family and friends.  I was greeted warmly and respectfully at the front desk by the manager, Mr. Patel.  He was very polite and helpful recommending local restaurants.  There are many places to eat within walking distance whether you want fast food, Chinese, sushi, and a great Mexican place (Max's) right next door with some of the best margaritas!  Room was very clean, comfortable bed and pillows, slept like a baby.  As I was loading my things to depart, I ran into Mr. Patel to return my key, and he asked how my stay was and wished me a pleasant and safe trip home.  Again I could tell he and his family take great pride in providing outstanding courteous service to their guests.  I will definitely be back next time I need a rest stop off of the 210.More</t>
   </si>
   <si>
+    <t>Danny_OI812</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r126104191-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -955,6 +1075,9 @@
     <t>Passing thru on business and selected this place based on their proximityy to the freeway and a few restaurants (see my review of the Spagetti Factory within walking distance) close by. They were easy to find and had a nice secure parking lot. The young lady working the check-in counter was very pleasant and gave me info about  4 or 5 good places to go for dinner nearby. I typically seek out brand-name hotels around the $65 to $95 range and my expectations adjust with the rate. When I entered the room I could tell within about 30 seconds that this hotel takes" care" of there rooms. On the small'ish side, but immaculate clean. None of the typical signs of "wear &amp; tare" (I'll spare you the 50 examples of what I mean). After dropping my bag on the bed and a quick visual check of the bath/shower, bed, carpet, couch, desk/workspace, lamps, tv &amp; power outlet at the desk one word came to mind; nice!More</t>
   </si>
   <si>
+    <t>exnewyorker0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r125055696-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -976,6 +1099,9 @@
     <t>Where do I begin with this hotel?  We drive in the hotel and this place needs a major face lift.  It's truly old looking compared to the picture on the website.  So we get into our room and we noticed there's no phone.  My boyfriend says maybe they don't want to be bothered at front desk.  So I went down stairs at front desk to let them know that there was no phone in my room.  The woman looked at me like I was nuts.   The lady at the front desk did come right away and replaced it.Also the water pressure is low when taking a shower.  There is no safe in the room.  I kept taking my lap top everywhere as this place doesn't look safe.  I would have stayed at the marriott hotel but it was sold out!!  Although I have to say the room is clean.More</t>
   </si>
   <si>
+    <t>Dani-LV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r120239972-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -997,6 +1123,9 @@
     <t>Stayed at this hotel for 3 nights and had a great time at this hotel.  The morning started off with a great selection of breakfast options from having hot fresh waffles and hard boiled eggs. Also being offered each morning was a selection of cereals both hot and cold, fruit, juices, coffee and tea. The room was spacious and updated with very comfortable beds that included a refrigerator and a microwave.  The hotel is easy to find and in a great location that is next to several stores and food establishments that are all within walking distance. The office staff was very kind and always greeted us with a smile.More</t>
   </si>
   <si>
+    <t>200503430</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r120140699-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1012,6 +1141,9 @@
     <t>i love this hotel!! it has nice remodled rooms, awsome service and great breakfast! mr patel checked me in and gave me a great chinese resturaunt close by. to me this was better than any other quality inn this is THE quailty inn!</t>
   </si>
   <si>
+    <t>Yvonne C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r118683168-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1030,6 +1162,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>RedTraveller44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r114273222-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1051,6 +1186,9 @@
     <t>One of the smaller properties of Choice Hotels, used to be a Comfort Inn (also of the Choice line) according to the internet print out code I used. Reception wasn't that good on the internet though as wifi was static mostly ( might be from the famous City of Hope Hospital nearby). . Rooms were adequate if somewhat smaller than larger Quality Inn's - but the price with AAA membership was good for the area, most other hotels are about $30-$50 higher per night near here. Service was adequate, friendly staff, adequate soft towels, no insect problems, The one noisy neighbor I had in my week plus stay-quieted when I turned on my tv (and could hear it probably).Air Conditioner and Heater (cool nights the period I was here) worked fine. Shower water nozzle could use replacement-the flow is limited -Desk said they all are being replaced soon. It's generally a safe walking area -  good local restaurants - Kentucky Fried Chicken &amp; McDonalds across the street- a Ralphs grocery and Starbuck's Coffee House are next door.. Small swimming pool, adequate maid service, all in all a decent place to stay in these budget conscious times. I rated it 3 Stars based on size, value, the low flow sort of  dribbly shower head, and parking lot noise.. .More</t>
   </si>
   <si>
+    <t>qwertyqat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r100092150-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1069,6 +1207,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>TravellerHebronville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r100078975-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1081,6 +1222,9 @@
     <t>I was on business in the Arcadia, California area for about six days.  My reservation was initially with another hotel and they screwed up on my reservation.  Upset and tired, I drove into Quality Inn.  Without any expectation, I was greeted with a smile, got the respected and felt like I was important.  I even saved money compared to the courtyard.  The breakfast is good and included, did not have to pay for the internet, and in walking proximity to restaurants, fast food and shopping centers.  I will be back</t>
   </si>
   <si>
+    <t>RESTinSTRESS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r72941278-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1102,6 +1246,9 @@
     <t>Recently my wife and I had to take a motel locally because we experienced a "burst water heater" in our home that left us with much water damage and the need to live outside the home while the damages were mitigated.  It was a day-by-day vigil and was a very demanding and stressful time.  The Patel family who own and operate the Quality Inn lived up to the name of the motel they operate.  They were intentional and flexible in meeting our needs.  They were friendly and kind in responding to our delemna.  This establishment was a real blessing at a time of great stress.  We were able to get the needed rest to respond daily to the stress.  Thank you, Patel family.  Once again, please read our one sentence title above.More</t>
   </si>
   <si>
+    <t>DESERT_PAINTBRUSH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r6131889-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
   </si>
   <si>
@@ -1121,6 +1268,9 @@
   </si>
   <si>
     <t>Cost is no bargain. Loathsome motel. This is a Comfort Inn imposter. We have stayed in Comfort Inns all over the country. This is absolutely the worst one yet. Too Small of a room for a king size bed. Walls deteriorating, pillows two inches thick and then only two of them,  Refrigerator not plugged in when we got into the room and wouldn't cool down while we were there. All maintenece done by the managers which didn't know how to prep for paint or anything else.  Outside paint looks like a mess.Concrete work that appeared to be done on a  slim budget by ametuers. The room had a four inch step up to get out of the room that my wife tripped on and came close to falling on her face. I have never seen  anything like this in a room before.  I think that the room used to be a storeroom. When checking in to the motel the smell of curry in the office was overwhelming.  The TV  got few of the normal channels much less HBO. The towels and washcloths were so thin even the cochroaches were complaining. The toilet paper was even too narrow for the toilet paper holder. It appeared that every effort that could be taken to cheapen the upkeep costs were taken. In my opinion this is a loathsome motel.More</t>
+  </si>
+  <si>
+    <t>RoRoRoses</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d84392-r5598014-Quality_Inn_Near_City_of_Hope-Monrovia_California.html</t>
@@ -1640,43 +1790,47 @@
       <c r="A2" t="n">
         <v>28860</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1696,50 +1850,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28860</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1757,56 +1915,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28860</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1824,56 +1986,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28860</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1893,50 +2059,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28860</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1954,50 +2124,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28860</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2017,50 +2191,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28860</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2080,50 +2258,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28860</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2143,50 +2325,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28860</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2200,50 +2386,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28860</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2263,50 +2453,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28860</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2324,50 +2518,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28860</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2381,50 +2579,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28860</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2444,50 +2646,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28860</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2507,50 +2713,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28860</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2568,50 +2778,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28860</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2631,50 +2845,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28860</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2692,50 +2910,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28860</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2755,50 +2977,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28860</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2816,50 +3042,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28860</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2883,50 +3113,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28860</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2950,50 +3184,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28860</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3017,50 +3255,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28860</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3084,50 +3326,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28860</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3151,50 +3397,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28860</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3208,50 +3458,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28860</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3275,50 +3529,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28860</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3342,50 +3600,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28860</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3409,50 +3671,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28860</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3476,41 +3742,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28860</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3539,50 +3809,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28860</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3606,50 +3880,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28860</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3673,41 +3951,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28860</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -3736,50 +4018,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28860</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3803,50 +4089,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28860</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>296</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3868,41 +4158,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28860</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3931,41 +4225,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28860</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -3984,50 +4282,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28860</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4045,50 +4347,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28860</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4112,50 +4418,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28860</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>330</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4179,41 +4489,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28860</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -4242,50 +4556,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28860</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4309,50 +4627,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28860</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4376,41 +4698,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28860</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>361</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4439,50 +4765,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28860</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4506,50 +4836,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28860</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4569,50 +4903,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28860</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4636,50 +4974,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28860</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>389</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4703,50 +5045,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28860</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4770,50 +5116,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28860</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4837,41 +5187,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28860</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>410</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -4890,7 +5244,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
